--- a/example_files/data.xlsx
+++ b/example_files/data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gkochiev\Desktop\Python\FTP\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gkochiev\Desktop\Python\nokia_webem_generator\example_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C38DAF8A-92FE-473B-BC72-D6B3753ECD21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7371E239-47C1-4C22-8939-D46CE985C4FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ID_to_Name" sheetId="13" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3567" uniqueCount="3507">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3569" uniqueCount="3509">
   <si>
     <t>90028</t>
   </si>
@@ -10560,6 +10560,12 @@
   </si>
   <si>
     <t>MRBTS91199.xml</t>
+  </si>
+  <si>
+    <t>TBLS-Millenium</t>
+  </si>
+  <si>
+    <t>MRBTS91994.xml</t>
   </si>
 </sst>
 </file>
@@ -10617,9 +10623,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -10900,10 +10909,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6720456F-4B17-4EBE-AEAF-B8B16A122F07}">
-  <dimension ref="A1:C1189"/>
+  <dimension ref="A1:C1190"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView tabSelected="1" topLeftCell="A1173" workbookViewId="0">
+      <selection activeCell="F1192" sqref="F1192"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -23992,6 +24001,17 @@
         <v>3506</v>
       </c>
     </row>
+    <row r="1190" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1190" s="2">
+        <v>91994</v>
+      </c>
+      <c r="B1190" t="s">
+        <v>3507</v>
+      </c>
+      <c r="C1190" t="s">
+        <v>3508</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:B1189" xr:uid="{6720456F-4B17-4EBE-AEAF-B8B16A122F07}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
